--- a/result/without_base/12/valence/s01_4.xlsx
+++ b/result/without_base/12/valence/s01_4.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.4899999797344208</v>
+        <v>0.5425000190734863</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -510,13 +510,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4925000071525574</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C2" t="n">
-        <v>5074.607177734375</v>
+        <v>41688.29296875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5047727254304019</v>
+        <v>0.5742045424201272</v>
       </c>
       <c r="E2" t="n">
-        <v>5074.727139559659</v>
+        <v>41687.83274147727</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5174999833106995</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C3" t="n">
-        <v>4972.0673828125</v>
+        <v>40915.400390625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5171590908007189</v>
+        <v>0.5959090969779275</v>
       </c>
       <c r="E3" t="n">
-        <v>4972.175825639205</v>
+        <v>40914.06853693182</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.5775000154972076</v>
       </c>
       <c r="C4" t="n">
-        <v>4871.619873046875</v>
+        <v>40150.685546875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5239772715351798</v>
+        <v>0.6167045452378013</v>
       </c>
       <c r="E4" t="n">
-        <v>4871.709517045455</v>
+        <v>40148.86789772727</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,1308 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4899999797344208</v>
+        <v>0.5575000047683716</v>
       </c>
       <c r="C5" t="n">
-        <v>4773.13232421875</v>
+        <v>39403.279296875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5288636305115439</v>
+        <v>0.5977272716435519</v>
       </c>
       <c r="E5" t="n">
-        <v>4773.203125</v>
+        <v>39401.29829545454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5825000107288361</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38658.716796875</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6515909108248624</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38655.70348011364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5524999797344208</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37931.650390625</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.674318172714927</v>
+      </c>
+      <c r="E7" t="n">
+        <v>37927.49538352273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5649999976158142</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37215.708984375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6717045415531505</v>
+      </c>
+      <c r="E8" t="n">
+        <v>37212.01420454546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6450000107288361</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36510.75390625</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6898863694884561</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36508.42080965909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6375000178813934</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35819.935546875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6980681798674844</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35816.85333806818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5875000059604645</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35140.3359375</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7211363694884561</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35136.51278409091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6099999845027924</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34472.248046875</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7448863603852012</v>
+      </c>
+      <c r="E12" t="n">
+        <v>34468.11860795454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6199999749660492</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33815.69140625</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7457954558459196</v>
+      </c>
+      <c r="E13" t="n">
+        <v>33811.72762784091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5900000035762787</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33170.60546875</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7573863593014803</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33166.29545454546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5949999988079071</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32536.828125</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7765909108248624</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32532.13458806818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5925000011920929</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31914.4140625</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.791250001300465</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31909.09730113636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5649999976158142</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31301.69140625</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8015909086574208</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31296.74822443182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5374999940395355</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30700.01171875</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7989772720770403</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30695.52503551136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6099999845027924</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30109.1513671875</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8170454556291754</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30104.68323863636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5674999952316284</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29528.4912109375</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8402272733775052</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29524.181640625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+      <c r="C21" t="n">
+        <v>28958.931640625</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8413636359301481</v>
+      </c>
+      <c r="E21" t="n">
+        <v>28954.15980113636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28399.12109375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8471590930765326</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28394.42595880682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5150000005960464</v>
+      </c>
+      <c r="C23" t="n">
+        <v>27849.583984375</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8426136374473572</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27844.87073863636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5250000059604645</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27309.1826171875</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8570454608310353</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27304.84765625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.570000022649765</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26778.9345703125</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8614772666584362</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26774.72318892046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5575000047683716</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26258.458984375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8675000017339533</v>
+      </c>
+      <c r="E26" t="n">
+        <v>26254.15127840909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5850000083446503</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25747.265625</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8643181757493452</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25743.04953835227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5974999964237213</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25245.1787109375</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8734090870076959</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25241.18696732954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5724999904632568</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24752.5166015625</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8709090948104858</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24748.56427556818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24268.7509765625</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8794318058274009</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24264.72336647727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5525000095367432</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23793.4951171875</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8988636406985197</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23789.70667613636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5899999737739563</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23326.9697265625</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.889886352148923</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23323.52645596591</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5449999868869781</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22869.3212890625</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8961363597349687</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22865.732421875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5774999856948853</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22419.9501953125</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8862499973990701</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22416.44229403409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5775000154972076</v>
+      </c>
+      <c r="C35" t="n">
+        <v>21978.904296875</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8918181766163219</v>
+      </c>
+      <c r="E35" t="n">
+        <v>21975.34836647727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5399999916553497</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21545.7490234375</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9065909114750949</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21542.25692471591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5450000166893005</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21120.78515625</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8920454653826627</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21117.33362926136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5175000131130219</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20703.44140625</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9135227257555182</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20700.03249289773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5300000011920929</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20293.8779296875</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9114772731607611</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20290.564453125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5300000011920929</v>
+      </c>
+      <c r="C40" t="n">
+        <v>19892.40625</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8535227287899364</v>
+      </c>
+      <c r="E40" t="n">
+        <v>19888.92365056818</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19497.40234375</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8996590809388594</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19494.16903409091</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5275000035762787</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19109.8369140625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9236363660205494</v>
+      </c>
+      <c r="E42" t="n">
+        <v>19106.90944602273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5774999856948853</v>
+      </c>
+      <c r="C43" t="n">
+        <v>18729.8486328125</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9142045432871039</v>
+      </c>
+      <c r="E43" t="n">
+        <v>18726.92933238636</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5424999892711639</v>
+      </c>
+      <c r="C44" t="n">
+        <v>18356.6025390625</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9257954575798728</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18353.88583096591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5399999916553497</v>
+      </c>
+      <c r="C45" t="n">
+        <v>17990.728515625</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9248863675377585</v>
+      </c>
+      <c r="E45" t="n">
+        <v>17987.83291903409</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5524999797344208</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17631.5859375</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9211363684047352</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17628.56995738636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17278.7880859375</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9281818216497247</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17275.91921164773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5149999856948853</v>
+      </c>
+      <c r="C48" t="n">
+        <v>16932.845703125</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9229545430703596</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16929.88813920454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+      <c r="C49" t="n">
+        <v>16593.0869140625</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9127272638407621</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16590.33984375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16259.5859375</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.932272732257843</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16257.01162997159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5275000035762787</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15932.6513671875</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9193181829019026</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15930.01890980114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5399999916553497</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15611.37060546875</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9311363642865961</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15609.03071732955</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5374999940395355</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15296.38916015625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9410227212038907</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15294.08416193182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5175000131130219</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14987.7197265625</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8999999924139543</v>
+      </c>
+      <c r="E54" t="n">
+        <v>14985.17959872159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.4949999898672104</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14684.43017578125</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.8968181772665544</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14681.91024502841</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="C56" t="n">
+        <v>14386.642578125</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9147727326913313</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14384.32421875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5499999821186066</v>
+      </c>
+      <c r="C57" t="n">
+        <v>14094.32080078125</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9267045476219871</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14092.3447265625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5524999797344208</v>
+      </c>
+      <c r="C58" t="n">
+        <v>13807.921875</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9361363703554327</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13805.83664772727</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5499999821186066</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13526.95556640625</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9231818209994923</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13524.77805397727</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5224999785423279</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13250.95654296875</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9373863610354337</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13248.95933948864</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5525000095367432</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12980.24853515625</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9356818144971674</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12978.33957741477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12714.7939453125</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9305681857195768</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12712.84090909091</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12454.4033203125</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9331818114627491</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12452.35733309659</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12198.916015625</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9171590859239752</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12196.84401633523</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.512499988079071</v>
+      </c>
+      <c r="C65" t="n">
+        <v>11947.87060546875</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.911022728139704</v>
+      </c>
+      <c r="E65" t="n">
+        <v>11946.12828480114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5674999952316284</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11701.90576171875</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9272727370262146</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11700.12526633523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5475000143051147</v>
+      </c>
+      <c r="C67" t="n">
+        <v>11460.7080078125</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.929886357350783</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11458.82945667614</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11223.9833984375</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.8872727264057506</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11222.2333984375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5649999976158142</v>
+      </c>
+      <c r="C69" t="n">
+        <v>10991.7275390625</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9145454493435946</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10989.95729758523</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5674999952316284</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10763.9775390625</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.914318176833066</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10762.17977627841</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5225000083446503</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10540.447265625</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9252272735942494</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10538.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5774999856948853</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10321.396484375</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8889772621068087</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10319.64950284091</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.570000022649765</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10106.455078125</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9038636305115439</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10104.65030184659</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.6024999916553497</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9895.4990234375</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9253409125588157</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9893.73544034091</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5575000047683716</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9688.66845703125</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9144318212162365</v>
+      </c>
+      <c r="E75" t="n">
+        <v>9686.93563565341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5424999892711639</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9485.7939453125</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9207954623482444</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9484.068980823864</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5374999940395355</v>
+      </c>
+      <c r="C77" t="n">
+        <v>9286.90234375</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9242045500061729</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9285.11727627841</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9091.54345703125</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.927499998699535</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9089.974964488636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5449999868869781</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8900.48193359375</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8620454506440596</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8898.771928267046</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5449999868869781</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8712.58740234375</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9134090976281599</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8710.984197443182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5425000190734863</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8528.44140625</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9155681837688793</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8526.945845170454</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C2" t="n">
         <v>0.007462686567164179</v>
@@ -681,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02985074626865672</v>
+        <v>0.01492537313432836</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -692,10 +1984,10 @@
         <v>0.009433962264150943</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02985074626865672</v>
+        <v>0.01492537313432836</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -703,7 +1995,7 @@
         <v>0.009433962264150943</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C5" t="n">
         <v>0.04477611940298507</v>
@@ -711,10 +2003,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.02830188679245283</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C6" t="n">
         <v>0.04477611940298507</v>
@@ -722,1244 +2014,1134 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.02830188679245283</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08955223880597014</v>
+        <v>0.05223880597014925</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08955223880597014</v>
+        <v>0.05223880597014925</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1119402985074627</v>
+        <v>0.06716417910447761</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.04716981132075472</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1119402985074627</v>
+        <v>0.06716417910447761</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.04716981132075472</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1194029850746269</v>
+        <v>0.1791044776119403</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1194029850746269</v>
+        <v>0.1791044776119403</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1492537313432836</v>
+        <v>0.1865671641791045</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1492537313432836</v>
+        <v>0.1865671641791045</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1641791044776119</v>
+        <v>0.2238805970149254</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.08490566037735849</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1641791044776119</v>
+        <v>0.2238805970149254</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.08490566037735849</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1716417910447761</v>
+        <v>0.2388059701492537</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1037735849056604</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1716417910447761</v>
+        <v>0.2388059701492537</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1037735849056604</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1865671641791045</v>
+        <v>0.2985074626865671</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1132075471698113</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1865671641791045</v>
+        <v>0.2985074626865671</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1132075471698113</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1940298507462687</v>
+        <v>0.3208955223880597</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.1792452830188679</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1940298507462687</v>
+        <v>0.3208955223880597</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.1792452830188679</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2014925373134328</v>
+        <v>0.3432835820895522</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1415094339622641</v>
+        <v>0.1981132075471698</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2014925373134328</v>
+        <v>0.3432835820895522</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1415094339622641</v>
+        <v>0.1981132075471698</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208955223880597</v>
+        <v>0.3507462686567164</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C26" t="n">
-        <v>0.208955223880597</v>
+        <v>0.3507462686567164</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2164179104477612</v>
+        <v>0.373134328358209</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.160377358490566</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2164179104477612</v>
+        <v>0.373134328358209</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.160377358490566</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2238805970149254</v>
+        <v>0.3805970149253731</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.169811320754717</v>
+        <v>0.2735849056603774</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2238805970149254</v>
+        <v>0.3805970149253731</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.169811320754717</v>
+        <v>0.2735849056603774</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2388059701492537</v>
+        <v>0.3955223880597015</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.1886792452830189</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2388059701492537</v>
+        <v>0.3955223880597015</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.1886792452830189</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2611940298507462</v>
+        <v>0.4029850746268657</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2075471698113208</v>
+        <v>0.2924528301886792</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2611940298507462</v>
+        <v>0.4029850746268657</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2075471698113208</v>
+        <v>0.2924528301886792</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2686567164179104</v>
+        <v>0.4104477611940299</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2169811320754717</v>
+        <v>0.330188679245283</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2686567164179104</v>
+        <v>0.4104477611940299</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2169811320754717</v>
+        <v>0.330188679245283</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3358208955223881</v>
+        <v>0.417910447761194</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2452830188679245</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3358208955223881</v>
+        <v>0.417910447761194</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2452830188679245</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C39" t="n">
-        <v>0.373134328358209</v>
+        <v>0.4253731343283582</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2547169811320755</v>
+        <v>0.3490566037735849</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C40" t="n">
-        <v>0.373134328358209</v>
+        <v>0.4253731343283582</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2547169811320755</v>
+        <v>0.3490566037735849</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3805970149253731</v>
+        <v>0.4328358208955224</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2641509433962264</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3805970149253731</v>
+        <v>0.4328358208955224</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2641509433962264</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3880597014925373</v>
+        <v>0.4402985074626866</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2830188679245283</v>
+        <v>0.3679245283018868</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3880597014925373</v>
+        <v>0.4402985074626866</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.2830188679245283</v>
+        <v>0.3679245283018868</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4029850746268657</v>
+        <v>0.4626865671641791</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3113207547169811</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4029850746268657</v>
+        <v>0.4626865671641791</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3113207547169811</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4328358208955224</v>
+        <v>0.5074626865671642</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3207547169811321</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4328358208955224</v>
+        <v>0.5074626865671642</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3207547169811321</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4477611940298508</v>
+        <v>0.5223880597014925</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4477611940298508</v>
+        <v>0.5223880597014925</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4552238805970149</v>
+        <v>0.5298507462686567</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3490566037735849</v>
+        <v>0.4433962264150944</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4552238805970149</v>
+        <v>0.5298507462686567</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3490566037735849</v>
+        <v>0.4433962264150944</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4701492537313433</v>
+        <v>0.5373134328358209</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4701492537313433</v>
+        <v>0.5373134328358209</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4776119402985075</v>
+        <v>0.5447761194029851</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4056603773584906</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4776119402985075</v>
+        <v>0.5447761194029851</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4056603773584906</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4850746268656717</v>
+        <v>0.5597014925373134</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4339622641509434</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4850746268656717</v>
+        <v>0.5597014925373134</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4339622641509434</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4925373134328358</v>
+        <v>0.582089552238806</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4528301886792453</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4925373134328358</v>
+        <v>0.582089552238806</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4528301886792453</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5</v>
+        <v>0.5970149253731343</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4716981132075472</v>
+        <v>0.5188679245283019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5</v>
+        <v>0.5970149253731343</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4716981132075472</v>
+        <v>0.5188679245283019</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5149253731343284</v>
+        <v>0.6343283582089553</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4811320754716981</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5149253731343284</v>
+        <v>0.6343283582089553</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4811320754716981</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5223880597014925</v>
+        <v>0.664179104477612</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5188679245283019</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5223880597014925</v>
+        <v>0.664179104477612</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5188679245283019</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5298507462686567</v>
+        <v>0.6865671641791045</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5298507462686567</v>
+        <v>0.6865671641791045</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5373134328358209</v>
+        <v>0.6940298507462687</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5377358490566038</v>
+        <v>0.5754716981132075</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5373134328358209</v>
+        <v>0.6940298507462687</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5377358490566038</v>
+        <v>0.5754716981132075</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5597014925373134</v>
+        <v>0.7014925373134329</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5597014925373134</v>
+        <v>0.7014925373134329</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6268656716417911</v>
+        <v>0.7164179104477612</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5849056603773585</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6268656716417911</v>
+        <v>0.7164179104477612</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5849056603773585</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6343283582089553</v>
+        <v>0.7313432835820896</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.5943396226415094</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6343283582089553</v>
+        <v>0.7313432835820896</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.5943396226415094</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6417910447761194</v>
+        <v>0.7611940298507462</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6226415094339622</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6417910447761194</v>
+        <v>0.7611940298507462</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6226415094339622</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6940298507462687</v>
+        <v>0.7910447761194029</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6320754716981132</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6940298507462687</v>
+        <v>0.7910447761194029</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6320754716981132</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7014925373134329</v>
+        <v>0.7985074626865671</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6698113207547169</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7014925373134329</v>
+        <v>0.7985074626865671</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6698113207547169</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7238805970149254</v>
+        <v>0.8059701492537313</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.6886792452830188</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7238805970149254</v>
+        <v>0.8059701492537313</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6886792452830188</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7313432835820896</v>
+        <v>0.8283582089552238</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.6981132075471698</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7313432835820896</v>
+        <v>0.8283582089552238</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.6981132075471698</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7835820895522388</v>
+        <v>0.8432835820895522</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7075471698113207</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7835820895522388</v>
+        <v>0.8432835820895522</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.7075471698113207</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7910447761194029</v>
+        <v>0.8507462686567164</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.7452830188679245</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7910447761194029</v>
+        <v>0.8507462686567164</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.7452830188679245</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7985074626865671</v>
+        <v>0.8582089552238806</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.7641509433962265</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7985074626865671</v>
+        <v>0.8582089552238806</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.7641509433962265</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C93" t="n">
-        <v>0.835820895522388</v>
+        <v>0.8656716417910447</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.7830188679245284</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C94" t="n">
-        <v>0.835820895522388</v>
+        <v>0.8656716417910447</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.7830188679245284</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8432835820895522</v>
+        <v>0.8805970149253731</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8432835820895522</v>
+        <v>0.8805970149253731</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8582089552238806</v>
+        <v>0.8955223880597015</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8582089552238806</v>
+        <v>0.8955223880597015</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8656716417910447</v>
+        <v>0.917910447761194</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8207547169811321</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8656716417910447</v>
+        <v>0.917910447761194</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8207547169811321</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8731343283582089</v>
+        <v>0.9253731343283582</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8731343283582089</v>
+        <v>0.9253731343283582</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8805970149253731</v>
+        <v>0.9701492537313433</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.9716981132075472</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8805970149253731</v>
+        <v>0.9701492537313433</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.9716981132075472</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8880597014925373</v>
+        <v>0.9850746268656716</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8880597014925373</v>
+        <v>0.9850746268656716</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9029850746268657</v>
+        <v>0.9925373134328358</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.8773584905660378</v>
+        <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9029850746268657</v>
+        <v>0.9925373134328358</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.8773584905660378</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5568149816952972</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C109" t="n">
-        <v>0.917910447761194</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="n">
-        <v>0.8962264150943396</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.5568149816952972</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.917910447761194</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="n">
-        <v>0.8962264150943396</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.5568149816952972</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9253731343283582</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="n">
-        <v>0.9245283018867925</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.5568149816952972</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.9253731343283582</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="n">
-        <v>0.9245283018867925</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5568149816952972</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.9552238805970149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="n">
-        <v>0.9528301886792453</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.5568149816952972</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.9552238805970149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="n">
-        <v>0.9528301886792453</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.5568149816952972</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.9626865671641791</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="n">
-        <v>0.9622641509433962</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.5568149816952972</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9626865671641791</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="n">
-        <v>0.9622641509433962</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.5568149816952972</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9776119402985075</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="n">
-        <v>1</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.5568149816952972</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.9776119402985075</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="n">
-        <v>1</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.5568149816952972</v>
-      </c>
-      <c r="C119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1974,7 +3156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1998,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2009,7 +3191,7 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2017,68 +3199,68 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.02238805970149254</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.02238805970149254</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.01886792452830189</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.03731343283582089</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.02830188679245283</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.03731343283582089</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04716981132075472</v>
+        <v>0.02830188679245283</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.04477611940298507</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04716981132075472</v>
+        <v>0.05660377358490566</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.04477611940298507</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.05660377358490566</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2086,21 +3268,21 @@
         <v>0.07462686567164178</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.0660377358490566</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.07462686567164178</v>
+        <v>0.08208955223880597</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1037735849056604</v>
+        <v>0.0660377358490566</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2108,197 +3290,197 @@
         <v>0.08208955223880597</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1037735849056604</v>
+        <v>0.07547169811320754</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.08208955223880597</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1226415094339623</v>
+        <v>0.07547169811320754</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.09701492537313433</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1226415094339623</v>
+        <v>0.1132075471698113</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.09701492537313433</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1415094339622641</v>
+        <v>0.1132075471698113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1119402985074627</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1415094339622641</v>
+        <v>0.1226415094339623</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1119402985074627</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.1226415094339623</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1194029850746269</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.1415094339622641</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1194029850746269</v>
+        <v>0.1417910447761194</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C19" t="n">
-        <v>0.169811320754717</v>
+        <v>0.1415094339622641</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1268656716417911</v>
+        <v>0.1417910447761194</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C20" t="n">
-        <v>0.169811320754717</v>
+        <v>0.160377358490566</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1268656716417911</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1792452830188679</v>
+        <v>0.160377358490566</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1343283582089552</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1792452830188679</v>
+        <v>0.169811320754717</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1343283582089552</v>
+        <v>0.1567164179104478</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1886792452830189</v>
+        <v>0.169811320754717</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1417910447761194</v>
+        <v>0.1567164179104478</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1886792452830189</v>
+        <v>0.1792452830188679</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1417910447761194</v>
+        <v>0.1716417910447761</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2075471698113208</v>
+        <v>0.1792452830188679</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1567164179104478</v>
+        <v>0.1716417910447761</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2075471698113208</v>
+        <v>0.1886792452830189</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1567164179104478</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2169811320754717</v>
+        <v>0.1886792452830189</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1641791044776119</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2169811320754717</v>
+        <v>0.1981132075471698</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1641791044776119</v>
+        <v>0.2014925373134328</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2358490566037736</v>
+        <v>0.1981132075471698</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2306,21 +3488,21 @@
         <v>0.2014925373134328</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2358490566037736</v>
+        <v>0.2075471698113208</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2014925373134328</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2547169811320755</v>
+        <v>0.2075471698113208</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2328,43 +3510,43 @@
         <v>0.208955223880597</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2547169811320755</v>
+        <v>0.2452830188679245</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.208955223880597</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2924528301886792</v>
+        <v>0.2452830188679245</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2164179104477612</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2924528301886792</v>
+        <v>0.2830188679245283</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2164179104477612</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3018867924528302</v>
+        <v>0.2830188679245283</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2372,43 +3554,43 @@
         <v>0.2686567164179104</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3018867924528302</v>
+        <v>0.3584905660377358</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2686567164179104</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3113207547169811</v>
+        <v>0.3584905660377358</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2761194029850746</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3113207547169811</v>
+        <v>0.3773584905660378</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2761194029850746</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C39" t="n">
-        <v>0.330188679245283</v>
+        <v>0.3773584905660378</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2416,21 +3598,21 @@
         <v>0.2985074626865671</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C40" t="n">
-        <v>0.330188679245283</v>
+        <v>0.4245283018867925</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2985074626865671</v>
+        <v>0.3059701492537313</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3679245283018868</v>
+        <v>0.4245283018867925</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2438,54 +3620,54 @@
         <v>0.3059701492537313</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3679245283018868</v>
+        <v>0.4433962264150944</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3059701492537313</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.4433962264150944</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3582089552238806</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.4528301886792453</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3582089552238806</v>
+        <v>0.3358208955223881</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4056603773584906</v>
+        <v>0.4528301886792453</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3656716417910448</v>
+        <v>0.3358208955223881</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4056603773584906</v>
+        <v>0.4716981132075472</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2493,260 +3675,260 @@
         <v>0.3656716417910448</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4150943396226415</v>
+        <v>0.4716981132075472</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.373134328358209</v>
+        <v>0.3656716417910448</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4150943396226415</v>
+        <v>0.4811320754716981</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.373134328358209</v>
+        <v>0.4029850746268657</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4528301886792453</v>
+        <v>0.4811320754716981</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.4402985074626866</v>
+        <v>0.4029850746268657</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4528301886792453</v>
+        <v>0.5094339622641509</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.4402985074626866</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4622641509433962</v>
+        <v>0.5094339622641509</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4626865671641791</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4622641509433962</v>
+        <v>0.5188679245283019</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4626865671641791</v>
+        <v>0.4402985074626866</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4716981132075472</v>
+        <v>0.5188679245283019</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4701492537313433</v>
+        <v>0.4402985074626866</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4716981132075472</v>
+        <v>0.5283018867924528</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4701492537313433</v>
+        <v>0.4552238805970149</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4811320754716981</v>
+        <v>0.5283018867924528</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4776119402985075</v>
+        <v>0.4552238805970149</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4811320754716981</v>
+        <v>0.5471698113207547</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4776119402985075</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5188679245283019</v>
+        <v>0.5471698113207547</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4850746268656717</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5188679245283019</v>
+        <v>0.5566037735849056</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4850746268656717</v>
+        <v>0.4701492537313433</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.5566037735849056</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5</v>
+        <v>0.4701492537313433</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.5660377358490566</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5</v>
+        <v>0.4776119402985075</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.5660377358490566</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5074626865671642</v>
+        <v>0.4776119402985075</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.5849056603773585</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5074626865671642</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5660377358490566</v>
+        <v>0.5849056603773585</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5149253731343284</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5660377358490566</v>
+        <v>0.6037735849056604</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5149253731343284</v>
+        <v>0.5373134328358209</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5943396226415094</v>
+        <v>0.6037735849056604</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5223880597014925</v>
+        <v>0.5373134328358209</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5943396226415094</v>
+        <v>0.6320754716981132</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5223880597014925</v>
+        <v>0.5597014925373134</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6226415094339622</v>
+        <v>0.6320754716981132</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5298507462686567</v>
+        <v>0.5597014925373134</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6226415094339622</v>
+        <v>0.6415094339622641</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5298507462686567</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6509433962264151</v>
+        <v>0.6415094339622641</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5447761194029851</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C70" t="n">
         <v>0.6509433962264151</v>
@@ -2754,21 +3936,21 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5447761194029851</v>
+        <v>0.5746268656716418</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C71" t="n">
-        <v>0.660377358490566</v>
+        <v>0.6509433962264151</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5522388059701493</v>
+        <v>0.5746268656716418</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C72" t="n">
         <v>0.660377358490566</v>
@@ -2776,46 +3958,46 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5522388059701493</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6792452830188679</v>
+        <v>0.660377358490566</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5671641791044776</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6792452830188679</v>
+        <v>0.6698113207547169</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5671641791044776</v>
+        <v>0.5895522388059702</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6886792452830188</v>
+        <v>0.6698113207547169</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.5970149253731343</v>
+        <v>0.5895522388059702</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6886792452830188</v>
+        <v>0.7075471698113207</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2823,18 +4005,18 @@
         <v>0.5970149253731343</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7169811320754716</v>
+        <v>0.7075471698113207</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6119402985074627</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C78" t="n">
         <v>0.7169811320754716</v>
@@ -2842,24 +4024,24 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6119402985074627</v>
+        <v>0.6044776119402985</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7358490566037735</v>
+        <v>0.7169811320754716</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6194029850746269</v>
+        <v>0.6044776119402985</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7358490566037735</v>
+        <v>0.7264150943396226</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2867,21 +4049,21 @@
         <v>0.6194029850746269</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7452830188679245</v>
+        <v>0.7264150943396226</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6268656716417911</v>
+        <v>0.6194029850746269</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7452830188679245</v>
+        <v>0.7358490566037735</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2889,416 +4071,295 @@
         <v>0.6268656716417911</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7547169811320755</v>
+        <v>0.7358490566037735</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.664179104477612</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7547169811320755</v>
+        <v>0.7641509433962265</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.664179104477612</v>
+        <v>0.6492537313432836</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7830188679245284</v>
+        <v>0.7641509433962265</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7313432835820896</v>
+        <v>0.6492537313432836</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7830188679245284</v>
+        <v>0.8018867924528302</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7313432835820896</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8018867924528302</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7388059701492538</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8207547169811321</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.7388059701492538</v>
+        <v>0.6791044776119403</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.8207547169811321</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.7611940298507462</v>
+        <v>0.6791044776119403</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.8490566037735849</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.7611940298507462</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.8490566037735849</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.7761194029850746</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.8679245283018868</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.7761194029850746</v>
+        <v>0.7611940298507462</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C93" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8679245283018868</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.7835820895522388</v>
+        <v>0.7611940298507462</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C94" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8773584905660378</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.7835820895522388</v>
+        <v>0.7761194029850746</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.8773584905660378</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.7910447761194029</v>
+        <v>0.7761194029850746</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.9056603773584906</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.7910447761194029</v>
+        <v>0.8134328358208955</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.9056603773584906</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.7985074626865671</v>
+        <v>0.8134328358208955</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.9433962264150944</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.7985074626865671</v>
+        <v>0.8208955223880597</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.9433962264150944</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8059701492537313</v>
+        <v>0.8208955223880597</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.9622641509433962</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8059701492537313</v>
+        <v>0.9328358208955224</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8867924528301887</v>
+        <v>0.9622641509433962</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8134328358208955</v>
+        <v>0.9328358208955224</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8867924528301887</v>
+        <v>0.9716981132075472</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8134328358208955</v>
+        <v>0.9477611940298507</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8962264150943396</v>
+        <v>0.9716981132075472</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8283582089552238</v>
+        <v>0.9477611940298507</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8962264150943396</v>
+        <v>0.9811320754716981</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.8283582089552238</v>
+        <v>0.9552238805970149</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9150943396226415</v>
+        <v>0.9811320754716981</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.835820895522388</v>
+        <v>0.9552238805970149</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9150943396226415</v>
+        <v>0.9905660377358491</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.835820895522388</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9245283018867925</v>
+        <v>0.9905660377358491</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.8507462686567164</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9245283018867925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.8507462686567164</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5568149816952971</v>
+        <v>0.5739228386370037</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9339622641509434</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="n">
-        <v>0.8805970149253731</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.5568149816952971</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.9339622641509434</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="n">
-        <v>0.8805970149253731</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.5568149816952971</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9528301886792453</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="n">
-        <v>0.8880597014925373</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.5568149816952971</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.9528301886792453</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="n">
-        <v>0.8880597014925373</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5568149816952971</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.9622641509433962</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="n">
-        <v>0.9104477611940298</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.5568149816952971</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.9622641509433962</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="n">
-        <v>0.9104477611940298</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.5568149816952971</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.9716981132075472</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="n">
-        <v>0.9552238805970149</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.5568149816952971</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9716981132075472</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="n">
-        <v>0.9552238805970149</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.5568149816952971</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9905660377358491</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="n">
-        <v>0.9701492537313433</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.5568149816952971</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.9905660377358491</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="n">
-        <v>0.9701492537313433</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.5568149816952971</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="n">
-        <v>1</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.5568149816952971</v>
-      </c>
-      <c r="C120" t="n">
         <v>1</v>
       </c>
     </row>
